--- a/biology/Botanique/Armérie/Armérie.xlsx
+++ b/biology/Botanique/Armérie/Armérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arm%C3%A9rie</t>
+          <t>Armérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armeria
 Armeria est un genre de plantes herbacées, les arméries, de la famille des Plumbaginaceae. Ses espèces sont vivaces.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arm%C3%A9rie</t>
+          <t>Armérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Armeria alboi (Bernis) Nieto Fel.
 Armeria alliacea (Cav.) Hoffmanns. &amp; Link
@@ -540,7 +554,7 @@
 Armeria splendens (Lag. &amp; Rodr.) Webb
 Armeria undulata (Bory &amp; Chaub.) Boiss.
 Armeria villosa Girard
-Armeria vulgaris Willd. - l'Armérie à tige allongée fait partie de la flore obsidionale de France[1]
+Armeria vulgaris Willd. - l'Armérie à tige allongée fait partie de la flore obsidionale de France
 Armeria welwitschii Boiss.</t>
         </is>
       </c>
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arm%C3%A9rie</t>
+          <t>Armérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +583,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Forme : tige de 10 à 40 cm selon espèce
 Feuilles : linéaires et un peu charnues, formant des coussins à la base de la hampe florale.
